--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>319306.0869735961</v>
+        <v>315168.6038386822</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6660456.462021563</v>
+        <v>6660456.462021567</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4973788.121259613</v>
+        <v>4973788.121259614</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5.596086793643922</v>
       </c>
       <c r="C2" t="n">
-        <v>23.32779925082469</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32779925082469</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="E2" t="n">
-        <v>23.32779925082469</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>19.74022553704937</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.54712558012638</v>
+        <v>20.54712558012632</v>
       </c>
       <c r="E3" t="n">
-        <v>23.32779925082469</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.32779925082469</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>23.32779925082469</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.8458783860897865</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.32779925082469</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>19.70124719403653</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8458783860898569</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>23.32779925082469</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>23.32779925082469</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -986,55 +986,55 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G6" t="n">
-        <v>37.06736141641883</v>
-      </c>
-      <c r="H6" t="n">
-        <v>40.6378963153706</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W6" t="n">
         <v>41.31500304752735</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
     </row>
     <row r="7">
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="I7" t="n">
         <v>17.8422975499833</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,76 +1211,76 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36.39025468426209</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>36.39025468426208</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="V10" t="n">
-        <v>36.39025468426209</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>293.920646536787</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>107.0709848214567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>51.77925078256411</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.48222241505076</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>363.0935935723745</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>82.85656881622896</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>146.391735625387</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>207.1186993459461</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1849,19 +1849,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>263.9127822410213</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>156.7012890994293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>281.018478593736</v>
       </c>
       <c r="W19" t="n">
-        <v>214.5646102646778</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>176.3796465021811</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>224.4032842719481</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>75.03117915389048</v>
       </c>
       <c r="C22" t="n">
-        <v>57.0922853105867</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>176.9631776198095</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>125.3589636692292</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>49.34995949258661</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>61.25797432372679</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>239.4474627651697</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>109.5540470185023</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258704</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>176.1446634785937</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>113.7844622307326</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.57422470259623</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>124.9554984777218</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>312.3337817353665</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>156.7012890994293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>38.19607965589071</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>149.6157531058527</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>212.6615473203997</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>53.19117033386421</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>17.75123914303109</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -3565,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>378.7447558512721</v>
+        <v>130.0550729486532</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>54.31661462074995</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>110.2762206011271</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>11.90294272943392</v>
+        <v>209.0988115239277</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>49.34995949258661</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>47.81188690301247</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>300.6093084270147</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>178.0787107184196</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258704</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>47.81188690301247</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.49614645473611</v>
+        <v>72.55652470014059</v>
       </c>
       <c r="C2" t="n">
-        <v>68.9327128680445</v>
+        <v>48.99309111344905</v>
       </c>
       <c r="D2" t="n">
-        <v>45.3692792813529</v>
+        <v>25.42965752675751</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8058456946613</v>
+        <v>25.42965752675751</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940065975</v>
+        <v>1.86622394006597</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940065975</v>
+        <v>1.86622394006597</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940065975</v>
+        <v>1.86622394006597</v>
       </c>
       <c r="I2" t="n">
-        <v>4.300780394746025</v>
+        <v>4.300780394746</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922391</v>
+        <v>10.55978981922387</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570093</v>
+        <v>19.94042246570087</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593548</v>
+        <v>31.57792675593538</v>
       </c>
       <c r="M2" t="n">
-        <v>44.52689258583993</v>
+        <v>44.5268925858398</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622059921</v>
+        <v>57.68538622059904</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895278</v>
+        <v>70.11057862895258</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249642</v>
+        <v>80.7151928824962</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654691077</v>
+        <v>88.67881654691051</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700329874</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700329874</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700329874</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700329874</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700329874</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="W2" t="n">
-        <v>92.49614645473611</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="X2" t="n">
-        <v>92.49614645473611</v>
+        <v>78.20913762301323</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.49614645473611</v>
+        <v>78.20913762301323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.18432982991554</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="C3" t="n">
-        <v>46.18432982991554</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="D3" t="n">
-        <v>25.42965752675758</v>
+        <v>72.55652470014059</v>
       </c>
       <c r="E3" t="n">
-        <v>1.866223940065975</v>
+        <v>48.99309111344905</v>
       </c>
       <c r="F3" t="n">
-        <v>1.866223940065975</v>
+        <v>25.42965752675751</v>
       </c>
       <c r="G3" t="n">
-        <v>1.866223940065975</v>
+        <v>25.42965752675751</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940065975</v>
+        <v>1.86622394006597</v>
       </c>
       <c r="I3" t="n">
-        <v>3.224722227401206</v>
+        <v>24.96074519838234</v>
       </c>
       <c r="J3" t="n">
-        <v>6.95254536211308</v>
+        <v>33.70409941137541</v>
       </c>
       <c r="K3" t="n">
-        <v>13.32398885826865</v>
+        <v>40.07554290753096</v>
       </c>
       <c r="L3" t="n">
-        <v>21.89118092381395</v>
+        <v>48.64273497307623</v>
       </c>
       <c r="M3" t="n">
-        <v>31.88868997596125</v>
+        <v>58.6402440252235</v>
       </c>
       <c r="N3" t="n">
-        <v>42.15080334420225</v>
+        <v>68.90235739346447</v>
       </c>
       <c r="O3" t="n">
-        <v>57.64546140248476</v>
+        <v>78.29018625882422</v>
       </c>
       <c r="P3" t="n">
-        <v>65.18002171254861</v>
+        <v>85.82474656888805</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.21667574498231</v>
+        <v>90.86140060132173</v>
       </c>
       <c r="R3" t="n">
-        <v>93.31119700329874</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="S3" t="n">
-        <v>69.74776341660714</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="T3" t="n">
-        <v>46.18432982991554</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="U3" t="n">
-        <v>46.18432982991554</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="V3" t="n">
-        <v>46.18432982991554</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="W3" t="n">
-        <v>46.18432982991554</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="X3" t="n">
-        <v>46.18432982991554</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="Y3" t="n">
-        <v>46.18432982991554</v>
+        <v>93.31119700329849</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.42965752675758</v>
+        <v>72.55652470014059</v>
       </c>
       <c r="C4" t="n">
-        <v>25.42965752675758</v>
+        <v>72.55652470014059</v>
       </c>
       <c r="D4" t="n">
-        <v>25.42965752675758</v>
+        <v>72.55652470014059</v>
       </c>
       <c r="E4" t="n">
-        <v>25.42965752675758</v>
+        <v>48.99309111344905</v>
       </c>
       <c r="F4" t="n">
-        <v>25.42965752675758</v>
+        <v>48.99309111344905</v>
       </c>
       <c r="G4" t="n">
-        <v>1.866223940065975</v>
+        <v>48.99309111344905</v>
       </c>
       <c r="H4" t="n">
-        <v>1.866223940065975</v>
+        <v>25.42965752675751</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940065975</v>
+        <v>1.86622394006597</v>
       </c>
       <c r="J4" t="n">
-        <v>24.96074519838241</v>
+        <v>24.96074519838234</v>
       </c>
       <c r="K4" t="n">
-        <v>30.75775532616958</v>
+        <v>46.37481944561859</v>
       </c>
       <c r="L4" t="n">
-        <v>35.67576594547525</v>
+        <v>51.29283006492425</v>
       </c>
       <c r="M4" t="n">
-        <v>58.77028720379168</v>
+        <v>56.47818270701104</v>
       </c>
       <c r="N4" t="n">
-        <v>81.86480846210812</v>
+        <v>61.54023925310204</v>
       </c>
       <c r="O4" t="n">
-        <v>86.54043700001716</v>
+        <v>66.21586779101106</v>
       </c>
       <c r="P4" t="n">
-        <v>90.54124495398821</v>
+        <v>70.21667574498211</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.31119700329874</v>
+        <v>93.31119700329849</v>
       </c>
       <c r="R4" t="n">
-        <v>73.41094731235276</v>
+        <v>73.41094731235249</v>
       </c>
       <c r="S4" t="n">
-        <v>72.55652470014078</v>
+        <v>73.41094731235249</v>
       </c>
       <c r="T4" t="n">
-        <v>48.99309111344918</v>
+        <v>73.41094731235249</v>
       </c>
       <c r="U4" t="n">
-        <v>25.42965752675758</v>
+        <v>73.41094731235249</v>
       </c>
       <c r="V4" t="n">
-        <v>25.42965752675758</v>
+        <v>73.41094731235249</v>
       </c>
       <c r="W4" t="n">
-        <v>25.42965752675758</v>
+        <v>73.41094731235249</v>
       </c>
       <c r="X4" t="n">
-        <v>25.42965752675758</v>
+        <v>73.41094731235249</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.42965752675758</v>
+        <v>73.41094731235249</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4564,28 +4564,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952684</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030265</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176018</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654175</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682881</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P5" t="n">
-        <v>142.9948879228475</v>
+        <v>142.9948879228476</v>
       </c>
       <c r="Q5" t="n">
         <v>157.0716593183938</v>
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C6" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D6" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E6" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J6" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K6" t="n">
-        <v>23.55833427601031</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L6" t="n">
-        <v>38.70199365651513</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M6" t="n">
-        <v>56.37392987329654</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N6" t="n">
-        <v>74.51358965724877</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O6" t="n">
-        <v>115.4154426743008</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P6" t="n">
-        <v>152.0267083864403</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.929668948206</v>
+        <v>139.3928126638406</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4676,22 +4676,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W6" t="n">
-        <v>123.5276858794757</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X6" t="n">
-        <v>123.5276858794757</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>104.7923756428305</v>
+      </c>
+      <c r="C7" t="n">
+        <v>104.7923756428305</v>
+      </c>
+      <c r="D7" t="n">
+        <v>104.7923756428305</v>
+      </c>
+      <c r="E7" t="n">
+        <v>104.7923756428305</v>
+      </c>
+      <c r="F7" t="n">
+        <v>104.7923756428305</v>
+      </c>
+      <c r="G7" t="n">
         <v>63.06004933219679</v>
       </c>
-      <c r="C7" t="n">
+      <c r="H7" t="n">
         <v>21.3277230215631</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21.3277230215631</v>
-      </c>
-      <c r="E7" t="n">
-        <v>21.3277230215631</v>
-      </c>
-      <c r="F7" t="n">
-        <v>21.3277230215631</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
@@ -4728,22 +4728,22 @@
         <v>7.439194768028656</v>
       </c>
       <c r="K7" t="n">
-        <v>14.23261768427069</v>
+        <v>48.34104778508073</v>
       </c>
       <c r="L7" t="n">
-        <v>22.9258601234117</v>
+        <v>57.03429022422174</v>
       </c>
       <c r="M7" t="n">
-        <v>37.65819191191834</v>
+        <v>66.20009549376488</v>
       </c>
       <c r="N7" t="n">
-        <v>78.56004492897041</v>
+        <v>75.14795840058038</v>
       </c>
       <c r="O7" t="n">
-        <v>119.4618979460225</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P7" t="n">
-        <v>160.3637509630746</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4770,7 +4770,7 @@
         <v>104.7923756428305</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.06004933219679</v>
+        <v>104.7923756428305</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4807,7 +4807,7 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
         <v>56.13818908654181</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="C9" t="n">
         <v>3.305200243802188</v>
@@ -4880,10 +4880,10 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>46.60838092749324</v>
+        <v>59.89648401348967</v>
       </c>
       <c r="K9" t="n">
         <v>71.1588637208333</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X9" t="n">
-        <v>86.76985286506957</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
         <v>3.305200243802188</v>
@@ -4962,22 +4962,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>11.73102424840464</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>18.52444716464667</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>27.21768960378768</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>68.11954262083975</v>
+        <v>63.82771314046379</v>
       </c>
       <c r="N10" t="n">
-        <v>109.0213956378918</v>
+        <v>72.77557604727929</v>
       </c>
       <c r="O10" t="n">
-        <v>117.2861952859146</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>81.79535956884203</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>40.06303325820834</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="V10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1355.033554032792</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="C11" t="n">
-        <v>916.8910812162151</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="D11" t="n">
-        <v>480.9812963906596</v>
+        <v>1205.738267937802</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895473</v>
+        <v>771.9635230960976</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>344.0960935053053</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
@@ -5044,16 +5044,16 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
         <v>1775.969506973259</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V11" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W11" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X11" t="n">
-        <v>1889.485634438363</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="Y11" t="n">
-        <v>1781.3331245177</v>
+        <v>1641.648052763358</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043084</v>
@@ -5126,7 +5126,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
         <v>803.387703298788</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>992.2890823372263</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C13" t="n">
-        <v>819.7273708204513</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D13" t="n">
-        <v>653.849378021974</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E13" t="n">
-        <v>484.0913742727112</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F13" t="n">
-        <v>307.3843202344674</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G13" t="n">
-        <v>142.6431398469858</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,16 +5205,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>733.4227107706873</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1317.603786189002</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1887.361501150536</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675981</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2215.901038951971</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1928.945530822401</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1656.919126408693</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1411.527371742105</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.107701056214</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1590.483051967699</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="C14" t="n">
-        <v>1152.340579151123</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D14" t="n">
-        <v>716.4307943255671</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E14" t="n">
-        <v>716.4307943255671</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G14" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U14" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V14" t="n">
-        <v>1957.244257596361</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W14" t="n">
-        <v>1590.483051967699</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X14" t="n">
-        <v>1590.483051967699</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="Y14" t="n">
-        <v>1590.483051967699</v>
+        <v>1614.480062263097</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>890.8935156942559</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C16" t="n">
-        <v>743.0230756686125</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>577.1450828701352</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E16" t="n">
-        <v>407.3870791208724</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092376</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2006.690231531823</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1728.303599580566</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1441.348091450997</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1169.321687037288</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>923.9299323707007</v>
       </c>
       <c r="Y16" t="n">
-        <v>890.8935156942559</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1782.900983623584</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>1410.876791836583</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>1410.876791836583</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435807</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5530,37 +5530,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X17" t="n">
-        <v>1941.185114027048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y17" t="n">
-        <v>1782.900983623584</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="18">
@@ -5573,43 +5573,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>381.705735685699</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5679,46 +5679,46 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>733.4227107706877</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1317.603786189002</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150537</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1973.653814855378</v>
+        <v>1411.410133819539</v>
       </c>
       <c r="W19" t="n">
-        <v>1756.921885295098</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.53013062851</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.073981139747</v>
+        <v>661.2775954676225</v>
       </c>
       <c r="C20" t="n">
-        <v>475.073981139747</v>
+        <v>661.2775954676225</v>
       </c>
       <c r="D20" t="n">
-        <v>475.073981139747</v>
+        <v>225.367810642067</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>225.367810642067</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>225.367810642067</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>225.367810642067</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V20" t="n">
-        <v>2133.657593334658</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W20" t="n">
-        <v>1728.802138745691</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="X20" t="n">
-        <v>1309.659675325001</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y20" t="n">
-        <v>901.3735516246547</v>
+        <v>1087.57716595253</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030328</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765398</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235827</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
         <v>1614.947661807679</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851416</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C22" t="n">
-        <v>558.4127897239429</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D22" t="n">
-        <v>558.4127897239429</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5919,13 +5919,13 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1690.512214359095</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1887.361501150536</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
         <v>2105.896438675981</v>
@@ -5934,10 +5934,10 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
         <v>2118.080353351143</v>
@@ -5952,10 +5952,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1525.741883262483</v>
+        <v>1618.847790237969</v>
       </c>
       <c r="C23" t="n">
-        <v>1087.599410445906</v>
+        <v>1180.705317421392</v>
       </c>
       <c r="D23" t="n">
-        <v>1087.599410445906</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E23" t="n">
-        <v>653.8246656042011</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F23" t="n">
-        <v>225.9572360134088</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G23" t="n">
-        <v>225.9572360134088</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1981.464740304142</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1618.847790237969</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1618.847790237969</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.327577447737</v>
+        <v>1618.847790237969</v>
       </c>
       <c r="Y23" t="n">
-        <v>1952.04145374739</v>
+        <v>1618.847790237969</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.081764785142</v>
+        <v>915.5847871853875</v>
       </c>
       <c r="C25" t="n">
-        <v>443.520053268367</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D25" t="n">
-        <v>443.520053268367</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E25" t="n">
-        <v>273.7620495191042</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F25" t="n">
-        <v>97.05499548086041</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G25" t="n">
-        <v>97.05499548086041</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H25" t="n">
-        <v>97.05499548086041</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895474</v>
@@ -6153,19 +6153,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>744.992999204955</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1160.879221014856</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N25" t="n">
-        <v>1288.378132818745</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O25" t="n">
-        <v>1825.813263392288</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856609</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>1107.403405904375</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.2588091910869</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>483.1163363745102</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6247,31 +6247,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U26" t="n">
-        <v>2118.461453442515</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V26" t="n">
-        <v>1755.844503376341</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W26" t="n">
-        <v>1755.844503376341</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X26" t="n">
-        <v>1755.844503376341</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y26" t="n">
-        <v>1347.558379675995</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I27" t="n">
         <v>81.42328772043086</v>
@@ -6360,52 +6360,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C28" t="n">
-        <v>559.5496021349386</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D28" t="n">
         <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>320.001370425736</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>862.0820538119949</v>
       </c>
       <c r="M28" t="n">
-        <v>1160.879221014856</v>
+        <v>992.6864461505243</v>
       </c>
       <c r="N28" t="n">
-        <v>1288.378132818745</v>
+        <v>1120.185357954414</v>
       </c>
       <c r="O28" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447737</v>
@@ -6414,22 +6414,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U28" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V28" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W28" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X28" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2182.403674944107</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="C29" t="n">
-        <v>1744.26120212753</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D29" t="n">
-        <v>1308.351417301975</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E29" t="n">
-        <v>874.5766724602698</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
@@ -6493,22 +6493,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2182.403674944107</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U29" t="n">
-        <v>2182.403674944107</v>
+        <v>2033.622525683786</v>
       </c>
       <c r="V29" t="n">
-        <v>2182.403674944107</v>
+        <v>2033.622525683786</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.403674944107</v>
+        <v>2033.622525683786</v>
       </c>
       <c r="X29" t="n">
-        <v>2182.403674944107</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="Y29" t="n">
-        <v>2182.403674944107</v>
+        <v>1614.480062263097</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>732.1113136517137</v>
+        <v>1000.85795851554</v>
       </c>
       <c r="C31" t="n">
-        <v>559.5496021349386</v>
+        <v>828.2962469987648</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>662.4182542002875</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>492.6602504510248</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>315.9531964127809</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895474</v>
@@ -6627,13 +6627,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M31" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N31" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O31" t="n">
         <v>2173.32015736263</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2234.109902217715</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2234.109902217715</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U31" t="n">
-        <v>1955.723270266458</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V31" t="n">
-        <v>1668.767762136888</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="W31" t="n">
-        <v>1396.74135772318</v>
+        <v>1665.488002587006</v>
       </c>
       <c r="X31" t="n">
-        <v>1151.349603056593</v>
+        <v>1420.096247920419</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.9299323707007</v>
+        <v>1192.676577234527</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.185114027048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="33">
@@ -6761,13 +6761,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
         <v>79.1492015823585</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>903.0372729147116</v>
       </c>
       <c r="C34" t="n">
-        <v>443.520053268367</v>
+        <v>730.4755613979365</v>
       </c>
       <c r="D34" t="n">
-        <v>393.6716093364613</v>
+        <v>564.5975685994592</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>394.8395648501965</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>218.1325108119527</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>218.1325108119527</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>85.78845019126859</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
@@ -6861,22 +6861,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>477.6707703898317</v>
+        <v>393.4422361027644</v>
       </c>
       <c r="L34" t="n">
-        <v>1019.751453776091</v>
+        <v>935.5229194890233</v>
       </c>
       <c r="M34" t="n">
-        <v>1150.35584611462</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.854757918509</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6894,16 +6894,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1567.667316986178</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>1322.275562319591</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>1094.855891633699</v>
       </c>
     </row>
     <row r="35">
@@ -6934,16 +6934,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6958,7 +6958,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
@@ -6973,16 +6973,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>2209.200554108492</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W35" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X35" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>750.0418582406339</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C37" t="n">
-        <v>577.4801467238589</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>411.6021539253816</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E37" t="n">
-        <v>241.8441501761188</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>65.13709613787503</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G37" t="n">
         <v>47.20655154895474</v>
@@ -7095,25 +7095,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>358.0754347909403</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092383</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1686.698306725809</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1414.6719023121</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.280147645513</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>941.8604769596211</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1144.298223916359</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C38" t="n">
-        <v>1144.298223916359</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D38" t="n">
-        <v>1144.298223916359</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
@@ -7180,7 +7180,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.86868437219</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W38" t="n">
-        <v>1144.298223916359</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="X38" t="n">
-        <v>1144.298223916359</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="Y38" t="n">
-        <v>1144.298223916359</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="39">
@@ -7232,16 +7232,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
         <v>79.1492015823585</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.081764785142</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C40" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D40" t="n">
-        <v>443.520053268367</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G40" t="n">
         <v>47.20655154895474</v>
@@ -7335,22 +7335,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>358.0754347909399</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1340.193340120866</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7377,7 +7377,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041292</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>446.7092428694776</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C41" t="n">
-        <v>446.7092428694776</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
         <v>446.7092428694776</v>
@@ -7408,16 +7408,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2060.790516184048</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>1698.173566117875</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W41" t="n">
-        <v>1293.318111528908</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X41" t="n">
-        <v>1281.294937054732</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="Y41" t="n">
-        <v>873.0088133543854</v>
+        <v>1744.26120212753</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.081764785142</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C43" t="n">
-        <v>443.520053268367</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D43" t="n">
-        <v>443.520053268367</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E43" t="n">
-        <v>273.7620495191042</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F43" t="n">
-        <v>97.05499548086041</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
@@ -7572,22 +7572,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1019.751453776091</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>1150.35584611462</v>
+        <v>910.9641928553089</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.854757918509</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7614,7 +7614,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041292</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2319.861207662535</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C44" t="n">
-        <v>1881.718734845958</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D44" t="n">
-        <v>1578.072968758064</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7669,31 +7669,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662535</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662535</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662535</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662535</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="X44" t="n">
-        <v>2319.861207662535</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="Y44" t="n">
-        <v>2319.861207662535</v>
+        <v>1346.991198798029</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,52 +7782,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851425</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C46" t="n">
-        <v>443.5200532683674</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871986</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.320157362631</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447737</v>
@@ -7836,10 +7836,10 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351144</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399887</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
         <v>1552.738213270317</v>
@@ -7851,7 +7851,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041296</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
   </sheetData>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>21.95557875856682</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5.066193008364849</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.168514336285593</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.85325743064614</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.96545941697561</v>
+        <v>20.96545941697555</v>
       </c>
       <c r="K4" t="n">
-        <v>1.973515756507531</v>
+        <v>17.7483279983753</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>18.09006930932286</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>18.21461082042973</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.52986788788471</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24.55313958073653</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>23.52820329282204</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,25 +8376,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>34.45295969778792</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5.622754059559085</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>32.27675768710764</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>32.96672057477706</v>
+        <v>0.04398798727484632</v>
       </c>
       <c r="P7" t="n">
         <v>34.17160518172662</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>34.65901652406723</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="K9" t="n">
-        <v>13.42232634949134</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33518129330907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637266</v>
+        <v>32.05661388637267</v>
       </c>
       <c r="N10" t="n">
-        <v>32.27675768710765</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2.440333798690091</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.36928463638103</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>45.75904403825052</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>141.4680432173438</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>45.75904403825086</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9567,16 +9567,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371568</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>70.05088382580919</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9801,22 +9801,22 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>288.1634641124963</v>
+        <v>444.9969971592904</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10035,13 +10035,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>118.2717723303433</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>288.1634641124962</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>158.2045317475398</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>192.4544649334023</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,16 +10518,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>264.6463123855402</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>69.27619576520647</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>69.27619576520601</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>104.3008170116725</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>264.6463123855408</v>
+        <v>229.6216911390745</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M46" t="n">
-        <v>192.4544649334027</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -11472,7 +11472,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>16.44048798641477</v>
       </c>
       <c r="C2" t="n">
-        <v>10.43324883758623</v>
+        <v>10.43324883758629</v>
       </c>
       <c r="D2" t="n">
-        <v>8.222887726475218</v>
+        <v>8.222887726475282</v>
       </c>
       <c r="E2" t="n">
-        <v>6.109198142463068</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>3.848529757834953</v>
+        <v>0.2609560440597001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22609,10 +22609,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>101.5870178705305</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.1322776418864</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>112.4399620879284</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>36.53839759942649</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>37.71330647070249</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>332.0944699702534</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4443587762203</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>32.70605250968131</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>165.5242151522664</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23797,10 +23797,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>247.5019733639138</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>3.06747445453783</v>
       </c>
       <c r="W19" t="n">
-        <v>54.7415301048936</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>90.6446894393475</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24028,7 +24028,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>134.5874962935636</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="C22" t="n">
-        <v>113.7438090910206</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>90.06115832171913</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>131.121020894472</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>13.11437420552782</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>163.887499655306</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>17.03252179853143</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679801</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>114.8692533779055</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>33.50887553698524</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>142.6955223329686</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,7 +24745,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>90.51954388101053</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.02677463308606</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>121.4272663530444</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.5019733639138</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>24.26825404222372</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>209.375027459659</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>188.1453527226773</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>145.3425294405757</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>22.06214419180486</v>
+        <v>270.7518270944238</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.7438090910202</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>114.8692533779057</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>403.0480960570485</v>
+        <v>205.8522272625547</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>113.7438090910202</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>177.3335870760203</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>130.9413785502852</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>222.7281893246574</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779055</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>177.3335870760203</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>598262.6950618029</v>
+        <v>598262.6950618027</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>372637.1263014719</v>
+        <v>372637.1263014718</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>372637.126301472</v>
+        <v>372637.1263014718</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>372637.126301472</v>
+        <v>372637.1263014718</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>372637.1263014719</v>
+        <v>372637.1263014718</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372637.1263014719</v>
+        <v>372637.126301472</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372637.1263014719</v>
+        <v>372637.1263014721</v>
       </c>
     </row>
     <row r="11">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331619.2890919164</v>
+        <v>331619.2890919166</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315054</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="E2" t="n">
         <v>196621.9641260216</v>
       </c>
       <c r="F2" t="n">
+        <v>196621.9641260215</v>
+      </c>
+      <c r="G2" t="n">
         <v>196621.9641260216</v>
       </c>
-      <c r="G2" t="n">
-        <v>196621.9641260217</v>
-      </c>
       <c r="H2" t="n">
-        <v>196621.9641260217</v>
+        <v>196621.9641260216</v>
       </c>
       <c r="I2" t="n">
-        <v>196621.9641260217</v>
+        <v>196621.9641260216</v>
       </c>
       <c r="J2" t="n">
         <v>196621.9641260217</v>
       </c>
       <c r="K2" t="n">
+        <v>196621.9641260217</v>
+      </c>
+      <c r="L2" t="n">
         <v>196621.9641260216</v>
-      </c>
-      <c r="L2" t="n">
-        <v>196621.9641260217</v>
       </c>
       <c r="M2" t="n">
         <v>196621.9641260217</v>
@@ -26355,7 +26355,7 @@
         <v>196621.9641260216</v>
       </c>
       <c r="P2" t="n">
-        <v>196621.9641260216</v>
+        <v>196621.9641260217</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150168936</v>
+        <v>25672.80150168928</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088758</v>
+        <v>18763.31828088765</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.578707182774</v>
+        <v>6103.578707182787</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749771</v>
+        <v>4629.330666749758</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>294691.6588548442</v>
       </c>
       <c r="E4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="F4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="G4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="H4" t="n">
         <v>19185.36025012661</v>
       </c>
       <c r="I4" t="n">
+        <v>19185.36025012662</v>
+      </c>
+      <c r="J4" t="n">
         <v>19185.36025012663</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19185.36025012662</v>
       </c>
       <c r="K4" t="n">
         <v>19185.36025012662</v>
@@ -26453,13 +26453,13 @@
         <v>19185.36025012662</v>
       </c>
       <c r="N4" t="n">
+        <v>19185.36025012663</v>
+      </c>
+      <c r="O4" t="n">
         <v>19185.36025012662</v>
       </c>
-      <c r="O4" t="n">
-        <v>19185.36025012663</v>
-      </c>
       <c r="P4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012662</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413286</v>
+        <v>35449.86995413285</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26481,19 +26481,19 @@
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25941.31980981641</v>
+        <v>-25955.21095317446</v>
       </c>
       <c r="C6" t="n">
         <v>-15216.47201443671</v>
       </c>
       <c r="D6" t="n">
-        <v>3546.846266451023</v>
+        <v>3546.846266450964</v>
       </c>
       <c r="E6" t="n">
-        <v>-381099.9868897246</v>
+        <v>-381653.8673329465</v>
       </c>
       <c r="F6" t="n">
-        <v>131385.5226662572</v>
+        <v>130831.6422230352</v>
       </c>
       <c r="G6" t="n">
-        <v>131385.5226662572</v>
+        <v>130831.6422230352</v>
       </c>
       <c r="H6" t="n">
-        <v>131385.5226662573</v>
+        <v>130831.6422230352</v>
       </c>
       <c r="I6" t="n">
-        <v>131385.5226662572</v>
+        <v>130831.6422230352</v>
       </c>
       <c r="J6" t="n">
-        <v>125281.9439590744</v>
+        <v>124728.0635158525</v>
       </c>
       <c r="K6" t="n">
-        <v>126756.1919995074</v>
+        <v>126202.3115562855</v>
       </c>
       <c r="L6" t="n">
-        <v>131385.5226662573</v>
+        <v>130831.6422230352</v>
       </c>
       <c r="M6" t="n">
-        <v>-5369.381716858188</v>
+        <v>-5923.262160080094</v>
       </c>
       <c r="N6" t="n">
-        <v>131385.5226662572</v>
+        <v>130831.6422230352</v>
       </c>
       <c r="O6" t="n">
-        <v>131385.5226662572</v>
+        <v>130831.6422230352</v>
       </c>
       <c r="P6" t="n">
-        <v>131385.5226662572</v>
+        <v>130831.6422230353</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443665</v>
+        <v>18.5293467744366</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26746,16 +26746,16 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082469</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="C4" t="n">
         <v>41.31500304752735</v>
@@ -26798,22 +26798,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443665</v>
+        <v>18.5293467744366</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613494</v>
+        <v>14.223755286135</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082469</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98720379670266</v>
+        <v>17.98720379670273</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082469</v>
+        <v>23.32779925082474</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670266</v>
+        <v>17.98720379670261</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082469</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670266</v>
+        <v>17.98720379670273</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27463,19 +27463,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>73.5922603847859</v>
+        <v>73.59226038478596</v>
       </c>
       <c r="E3" t="n">
-        <v>69.85141127549113</v>
+        <v>69.85141127549119</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>59.22220074917537</v>
       </c>
       <c r="G3" t="n">
         <v>84.49138326039709</v>
       </c>
       <c r="H3" t="n">
-        <v>40.93337470348446</v>
+        <v>17.60557545265984</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>38.75278408008984</v>
+        <v>62.08058333091454</v>
       </c>
       <c r="T3" t="n">
-        <v>105.3884120414485</v>
+        <v>128.7162112922732</v>
       </c>
       <c r="U3" t="n">
         <v>174.5705594526576</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>189.0545541457074</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27545,19 +27545,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>144.7326244609455</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>140.5741493974553</v>
+        <v>163.90194864828</v>
       </c>
       <c r="H4" t="n">
-        <v>138.2060754985719</v>
+        <v>114.8782762477472</v>
       </c>
       <c r="I4" t="n">
-        <v>86.76851237028721</v>
+        <v>63.44071311946259</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.220769124523</v>
+        <v>157.0666475106129</v>
       </c>
       <c r="T4" t="n">
-        <v>219.9500856084065</v>
+        <v>243.2778848592312</v>
       </c>
       <c r="U4" t="n">
-        <v>252.3190489299019</v>
+        <v>275.6468481807266</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27706,13 +27706,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>47.39342735147601</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,13 +27748,13 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T6" t="n">
-        <v>128.5928940176698</v>
+        <v>87.27789097014247</v>
       </c>
       <c r="U6" t="n">
         <v>174.5685466570983</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W6" t="n">
         <v>142.1545236766106</v>
@@ -27763,7 +27763,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.2209214285714</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>146.0340017035184</v>
+        <v>122.5612962059744</v>
       </c>
       <c r="H7" t="n">
-        <v>137.9780290613614</v>
+        <v>96.66302601383404</v>
       </c>
       <c r="I7" t="n">
-        <v>85.99716511640959</v>
+        <v>68.15486756642629</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>201.6228340723943</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.19730100379491</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>116.9285067192467</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28016,10 +28016,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>201.8532889431057</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
         <v>234.3304460753022</v>
       </c>
       <c r="V10" t="n">
-        <v>247.6956983640117</v>
+        <v>266.2436554982905</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914227</v>
+        <v>0.07448983627914207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.762869035793766</v>
+        <v>0.762869035793764</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151635</v>
+        <v>2.871769413151628</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896857</v>
+        <v>6.32223174189684</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511592951</v>
+        <v>9.475386511592927</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862075</v>
+        <v>11.75505483862072</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346454995</v>
+        <v>13.07976346454991</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187806</v>
+        <v>13.29140771187803</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237734</v>
+        <v>12.55069940237731</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923602</v>
+        <v>10.71173156923599</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489231</v>
+        <v>8.044064307489208</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169675</v>
+        <v>4.679172178169662</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144210956</v>
+        <v>1.697437144210952</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119455</v>
+        <v>0.3260792583119446</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331381</v>
+        <v>0.005959186902331364</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086375</v>
+        <v>0.03985557608086364</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3849209584651841</v>
+        <v>0.3849209584651831</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257809</v>
+        <v>1.372220492257805</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850378</v>
+        <v>3.765477913850368</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268249</v>
+        <v>6.435801511268231</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136667</v>
+        <v>8.653729359136642</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206798</v>
+        <v>10.09849399206795</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903131</v>
+        <v>10.36577107903129</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555332</v>
+        <v>9.482655419555305</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862482</v>
+        <v>7.610666979862462</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690608</v>
+        <v>5.087529325690594</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178541</v>
+        <v>2.474541820178535</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7402998451862187</v>
+        <v>0.7402998451862167</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1606459404312008</v>
+        <v>0.1606459404312003</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373741037</v>
+        <v>0.00262207737374103</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341357615062347</v>
+        <v>0.03341357615062338</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573616</v>
+        <v>0.2970770679573608</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784204</v>
+        <v>1.004837362784202</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849079</v>
+        <v>2.362339833849073</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136071</v>
+        <v>3.882050029136061</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248149</v>
+        <v>4.967687494248135</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501822</v>
+        <v>5.237729941501808</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430394957</v>
+        <v>5.113188430394943</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999036</v>
+        <v>4.722857108999023</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526314</v>
+        <v>4.041220155526303</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939935</v>
+        <v>2.797931362939927</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645306</v>
+        <v>1.502395887645302</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043704107</v>
+        <v>0.5823075043704091</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981184</v>
+        <v>0.1427670980981181</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124919</v>
+        <v>0.001822558699124914</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646698</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -32484,28 +32484,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415869</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,7 +32803,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917233</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -33040,7 +33040,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33280,7 +33280,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33754,13 +33754,13 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33991,7 +33991,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -34228,7 +34228,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -34453,7 +34453,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020238</v>
+        <v>2.45914793402023</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896857</v>
+        <v>6.322231741896839</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511592951</v>
+        <v>9.475386511592927</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862075</v>
+        <v>11.75505483862072</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346454995</v>
+        <v>13.07976346454991</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187807</v>
+        <v>13.29140771187803</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237734</v>
+        <v>12.55069940237731</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923601</v>
+        <v>10.71173156923598</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489236</v>
+        <v>8.044064307489208</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169679</v>
+        <v>4.679172178169665</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257809</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850377</v>
+        <v>8.831670922215217</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268249</v>
+        <v>6.435801511268231</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136669</v>
+        <v>8.653729359136641</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206798</v>
+        <v>10.09849399206795</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903131</v>
+        <v>10.36577107903128</v>
       </c>
       <c r="O3" t="n">
-        <v>15.65116975584093</v>
+        <v>9.4826554195553</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862479</v>
+        <v>7.610666979862458</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.08752932569061</v>
+        <v>5.087529325690596</v>
       </c>
       <c r="R3" t="n">
-        <v>23.32779925082468</v>
+        <v>2.47454182017853</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082469</v>
+        <v>23.32779925082462</v>
       </c>
       <c r="K4" t="n">
-        <v>5.855565785643602</v>
+        <v>21.63037802751136</v>
       </c>
       <c r="L4" t="n">
-        <v>4.96768749424815</v>
+        <v>4.967687494248139</v>
       </c>
       <c r="M4" t="n">
-        <v>23.32779925082468</v>
+        <v>5.237729941501811</v>
       </c>
       <c r="N4" t="n">
-        <v>23.32779925082468</v>
+        <v>5.113188430394942</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999037</v>
+        <v>4.722857108999023</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526318</v>
+        <v>4.041220155526304</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939934</v>
+        <v>23.32779925082463</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
-        <v>20.77863378260765</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M5" t="n">
         <v>23.12023369725966</v>
@@ -34950,16 +34950,16 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.21896100560224</v>
+        <v>14.21896100560221</v>
       </c>
       <c r="R5" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J6" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
         <v>11.37614111852891</v>
@@ -35029,16 +35029,16 @@
         <v>18.32288867065883</v>
       </c>
       <c r="O6" t="n">
-        <v>41.31500304752736</v>
+        <v>16.76186346679083</v>
       </c>
       <c r="P6" t="n">
-        <v>36.98107647690853</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q6" t="n">
         <v>8.99288945632901</v>
       </c>
       <c r="R6" t="n">
-        <v>4.37408408273069</v>
+        <v>26.12848436996845</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>4.175752044673201</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739427</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829309</v>
+        <v>8.781052968829307</v>
       </c>
       <c r="M7" t="n">
-        <v>14.88114322071377</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752735</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752734</v>
+        <v>8.392270460025131</v>
       </c>
       <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.945718411146316</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260769</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
         <v>23.12023369725966</v>
@@ -35187,10 +35187,10 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
         <v>14.21896100560221</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752735</v>
+        <v>28.41038681069788</v>
       </c>
       <c r="K9" t="n">
-        <v>24.79846746802025</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
         <v>15.29662563687356</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.510933337982271</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739425</v>
+        <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829311</v>
+        <v>8.781052968829309</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752736</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>10.78861627144038</v>
       </c>
       <c r="P10" t="n">
-        <v>7.143397865800722</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062835</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35497,7 +35497,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35573,19 +35573,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>170.8810658749151</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221537</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35670,7 +35670,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646698</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409511</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712374</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>170.8810658749154</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415869</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -36220,7 +36220,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36287,22 +36287,22 @@
         <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>198.8376634256977</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36521,22 +36521,22 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>420.0870927372735</v>
+        <v>576.9206257840676</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,13 +36594,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>216.0496516915132</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>420.0870927372735</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998884</v>
@@ -36773,7 +36773,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36995,16 +36995,16 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M31" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>277.1599674523497</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37150,10 +37150,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37229,7 +37229,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572665</v>
+        <v>290.2323442945722</v>
       </c>
       <c r="L34" t="n">
         <v>547.556245844706</v>
@@ -37238,16 +37238,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>383.6017480903502</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>167.0540751263764</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37548,22 +37548,22 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37703,16 +37703,16 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>167.0540751263759</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>236.2244456364497</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37721,7 +37721,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37785,7 +37785,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37940,25 +37940,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O43" t="n">
-        <v>383.6017480903506</v>
+        <v>348.5771268438843</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38116,10 +38116,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M46" t="n">
-        <v>324.3780935581799</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
         <v>70.4719911420766</v>
